--- a/common/graphs.xlsx
+++ b/common/graphs.xlsx
@@ -183,10 +183,10 @@
                   <c:v>0.352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.260869565217391</c:v>
+                  <c:v>0.208588957055215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -243,10 +243,10 @@
                   <c:v>0.388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28</c:v>
+                  <c:v>0.251263902932255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,10 +303,10 @@
                   <c:v>0.277777777777778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.217391304347826</c:v>
+                  <c:v>0.163934426229508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1400,12 +1400,11 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F3" si="1">B2/(B2+D2)</f>
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G3" si="2">E2*F2/(E2+F2)</f>
-        <v>0.2608695652173913</v>
+        <f t="shared" ref="G2:G3" si="1">E2*F2/(E2+F2)</f>
+        <v>0.20858895705521474</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1426,12 +1425,11 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="F3">
+        <v>0.71</v>
+      </c>
+      <c r="G3">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.25126390293225481</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,12 +1450,11 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="F4">
-        <f>B4/(B4+D4)</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <f>E4*F4/(E4+F4)</f>
-        <v>0.21739130434782611</v>
+        <v>0.16393442622950821</v>
       </c>
     </row>
   </sheetData>

--- a/common/graphs.xlsx
+++ b/common/graphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Parsers" sheetId="1" r:id="rId1"/>
+    <sheet name="EngineerTasks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Stanford</t>
   </si>
@@ -51,6 +52,39 @@
   </si>
   <si>
     <t>F-measure</t>
+  </si>
+  <si>
+    <t>Класс проблем</t>
+  </si>
+  <si>
+    <t>Неизвестно</t>
+  </si>
+  <si>
+    <t>Проблемы с ПО</t>
+  </si>
+  <si>
+    <t>Проблемы во время работы</t>
+  </si>
+  <si>
+    <t>Не знаю как сделать</t>
+  </si>
+  <si>
+    <t>Проблема с оборудованием</t>
+  </si>
+  <si>
+    <t>Установить новое ПО</t>
+  </si>
+  <si>
+    <t>Проблема с печатью</t>
+  </si>
+  <si>
+    <t>Нет доступа</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Соотношение классов проблем (%)</t>
   </si>
 </sst>
 </file>
@@ -137,7 +171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$2</c:f>
+              <c:f>Parsers!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -158,7 +192,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:f>Parsers!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -175,7 +209,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$G$2</c:f>
+              <c:f>Parsers!$B$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -197,7 +231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$3</c:f>
+              <c:f>Parsers!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -218,7 +252,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:f>Parsers!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -235,7 +269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$G$3</c:f>
+              <c:f>Parsers!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -257,7 +291,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$4</c:f>
+              <c:f>Parsers!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -278,7 +312,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$1:$G$1</c:f>
+              <c:f>Parsers!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -295,7 +329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$4:$G$4</c:f>
+              <c:f>Parsers!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -322,11 +356,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2116511712"/>
-        <c:axId val="2142944176"/>
+        <c:axId val="-2094118080"/>
+        <c:axId val="-2094109888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2116511712"/>
+        <c:axId val="-2094118080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -369,7 +403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142944176"/>
+        <c:crossAx val="-2094109888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -377,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142944176"/>
+        <c:axId val="-2094109888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +462,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2116511712"/>
+        <c:crossAx val="-2094118080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -509,7 +543,353 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EngineerTasks!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Соотношение классов проблем (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>EngineerTasks!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Неизвестно</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Проблемы с ПО</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Проблемы во время работы</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Не знаю как сделать</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Проблема с оборудованием</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Установить новое ПО</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Проблема с печатью</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Нет доступа</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EngineerTasks!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="-2060970544"/>
+        <c:axId val="-2060901792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2060970544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2060901792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2060901792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2060970544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1052,6 +1432,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1070,6 +1955,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1352,7 +2272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1462,4 +2382,141 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>ROUND((C2*100)/C10,2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>ROUND((C3*100)/C10,2)</f>
+        <v>43.83</v>
+      </c>
+      <c r="C3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>ROUND((C4*100)/C10,2)</f>
+        <v>0.38</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <f>ROUND((C5*100)/C10,2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <f>ROUND((C6*100)/C10,2)</f>
+        <v>0.43</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>ROUND((C7*100)/C10,2)</f>
+        <v>32.58</v>
+      </c>
+      <c r="C7">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f>ROUND((C8*100)/C10,2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f>ROUND((C9*100)/C10,2)</f>
+        <v>21.65</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>1848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/common/graphs.xlsx
+++ b/common/graphs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parsers" sheetId="1" r:id="rId1"/>
@@ -356,11 +356,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2094118080"/>
-        <c:axId val="-2094109888"/>
+        <c:axId val="-2138776848"/>
+        <c:axId val="-2138749856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2094118080"/>
+        <c:axId val="-2138776848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -403,7 +403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094109888"/>
+        <c:crossAx val="-2138749856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -411,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094109888"/>
+        <c:axId val="-2138749856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -447,7 +447,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -462,7 +462,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2094118080"/>
+        <c:crossAx val="-2138776848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -490,7 +490,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -694,11 +694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-2060970544"/>
-        <c:axId val="-2060901792"/>
+        <c:axId val="-2137856928"/>
+        <c:axId val="-2137853568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060970544"/>
+        <c:axId val="-2137856928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +741,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060901792"/>
+        <c:crossAx val="-2137853568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -749,7 +749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060901792"/>
+        <c:axId val="-2137853568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +800,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2060970544"/>
+        <c:crossAx val="-2137856928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2388,7 +2388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
